--- a/xlsx/维基数据_intext.xlsx
+++ b/xlsx/维基数据_intext.xlsx
@@ -15,165 +15,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>维基数据</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wikidata</t>
+  </si>
+  <si>
+    <t>en-Wikidata</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_维基数据</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>维基媒体基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>创业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
+  </si>
+  <si>
+    <t>Alexa Internet</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E5%90%8C%E7%BC%96%E8%BE%91</t>
+  </si>
+  <si>
+    <t>协同编辑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>维基学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
+  </si>
+  <si>
+    <t>维基共享资源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>条码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E8%89%BE%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>保罗·艾伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Google%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>Google公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wikimedia_Foundation</t>
+  </si>
+  <si>
+    <t>Wikimedia Foundation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/TechCrunch</t>
+  </si>
+  <si>
+    <t>TechCrunch</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>维基教科书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
+  </si>
+  <si>
+    <t>维基语录</t>
+  </si>
+  <si>
+    <t>https://zh.wikiquote.org/wiki/</t>
+  </si>
+  <si>
+    <t>q-</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
+  </si>
+  <si>
+    <t>维基物种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
+  </si>
+  <si>
+    <t>维基新闻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
+  </si>
+  <si>
+    <t>维基导游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
+  </si>
+  <si>
+    <t>MediaWiki</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%BB%B4%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>元维基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>维基媒体国际会议</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%95%B0%E6%8D%AE</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Wikidata</t>
-  </si>
-  <si>
-    <t>en-Wikidata</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_维基数据</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>創業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
-  </si>
-  <si>
-    <t>Alexa Internet</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E5%90%8C%E7%BC%96%E8%BE%91</t>
-  </si>
-  <si>
-    <t>协同编辑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>维基学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
-  </si>
-  <si>
-    <t>維基共享資源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>條碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E8%89%BE%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>保罗·艾伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Google%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>Google公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wikimedia_Foundation</t>
-  </si>
-  <si>
-    <t>Wikimedia Foundation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/TechCrunch</t>
-  </si>
-  <si>
-    <t>TechCrunch</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>维基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>維基教科書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
-  </si>
-  <si>
-    <t>維基語錄</t>
-  </si>
-  <si>
-    <t>https://zh.wikiquote.org/wiki/</t>
-  </si>
-  <si>
-    <t>q-</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
-  </si>
-  <si>
-    <t>維基文庫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
-  </si>
-  <si>
-    <t>維基物種</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
-  </si>
-  <si>
-    <t>維基新聞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
-  </si>
-  <si>
-    <t>維基導遊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
-  </si>
-  <si>
-    <t>MediaWiki</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%BB%B4%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>元维基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>維基媒體國際會議</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,6 +1319,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
